--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\locl1\Documents\Python Scripts\3D-visualization-of-hydrocarbons-concentrations-in-soil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79D2BFB-7DB8-42BE-9714-363D9DEFFFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BADB876-C90B-43EF-BEB9-02C0673C599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -262,11 +262,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,12 +305,18 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,17 +331,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4452,11 +4467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4468,7 +4483,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4511,7 +4526,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5075,6 +5090,12 @@
       <c r="L14" s="3">
         <v>54900</v>
       </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -5113,6 +5134,12 @@
       <c r="L15" s="3">
         <v>72700</v>
       </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -5151,6 +5178,12 @@
       <c r="L16" s="3">
         <v>168000</v>
       </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -5189,6 +5222,12 @@
       <c r="L17" s="3">
         <v>161000</v>
       </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -5227,6 +5266,12 @@
       <c r="L18" s="3">
         <v>83100</v>
       </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -5265,6 +5310,12 @@
       <c r="L19" s="3">
         <v>80100</v>
       </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -5303,6 +5354,12 @@
       <c r="L20" s="3">
         <v>107000</v>
       </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -5341,6 +5398,12 @@
       <c r="L21" s="3">
         <v>73800</v>
       </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -5379,6 +5442,12 @@
       <c r="L22" s="3">
         <v>185000</v>
       </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -5417,6 +5486,12 @@
       <c r="L23" s="3">
         <v>162000</v>
       </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -5455,6 +5530,12 @@
       <c r="L24" s="3">
         <v>66000</v>
       </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -5493,6 +5574,12 @@
       <c r="L25" s="3">
         <v>77900</v>
       </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -6059,6 +6146,12 @@
       <c r="L38" s="3">
         <v>44500</v>
       </c>
+      <c r="M38" s="8">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -6097,6 +6190,12 @@
       <c r="L39" s="3">
         <v>149000</v>
       </c>
+      <c r="M39" s="8">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -6135,6 +6234,12 @@
       <c r="L40" s="3">
         <v>143000</v>
       </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
@@ -6173,6 +6278,12 @@
       <c r="L41" s="3">
         <v>121000</v>
       </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
@@ -6211,6 +6322,12 @@
       <c r="L42" s="3">
         <v>195000</v>
       </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
@@ -6249,6 +6366,12 @@
       <c r="L43" s="3">
         <v>220000</v>
       </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -6287,6 +6410,12 @@
       <c r="L44" s="3">
         <v>54100</v>
       </c>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
@@ -6325,6 +6454,12 @@
       <c r="L45" s="3">
         <v>162000</v>
       </c>
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
@@ -6363,6 +6498,12 @@
       <c r="L46" s="3">
         <v>154000</v>
       </c>
+      <c r="M46" s="8">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
@@ -6401,6 +6542,12 @@
       <c r="L47" s="3">
         <v>159000</v>
       </c>
+      <c r="M47" s="8">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
@@ -6439,6 +6586,12 @@
       <c r="L48" s="3">
         <v>205000</v>
       </c>
+      <c r="M48" s="8">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
@@ -6477,6 +6630,12 @@
       <c r="L49" s="3">
         <v>200000</v>
       </c>
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -6497,6 +6656,24 @@
       <c r="F50" s="3">
         <v>1</v>
       </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
       <c r="M50" s="3">
         <v>7.04</v>
       </c>
@@ -6523,6 +6700,24 @@
       <c r="F51" s="3">
         <v>1</v>
       </c>
+      <c r="G51" s="8">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
       <c r="M51" s="3">
         <v>7.14</v>
       </c>
@@ -6549,6 +6744,24 @@
       <c r="F52" s="3">
         <v>1</v>
       </c>
+      <c r="G52" s="8">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
       <c r="M52" s="3">
         <v>7.04</v>
       </c>
@@ -6575,6 +6788,24 @@
       <c r="F53" s="3">
         <v>1</v>
       </c>
+      <c r="G53" s="8">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
       <c r="M53" s="3">
         <v>7.21</v>
       </c>
@@ -6601,6 +6832,24 @@
       <c r="F54" s="3">
         <v>1</v>
       </c>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
       <c r="M54" s="3">
         <v>7.35</v>
       </c>
@@ -6627,6 +6876,24 @@
       <c r="F55" s="3">
         <v>1</v>
       </c>
+      <c r="G55" s="8">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
       <c r="M55" s="3">
         <v>7.32</v>
       </c>
@@ -6653,6 +6920,24 @@
       <c r="F56" s="3">
         <v>1</v>
       </c>
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
       <c r="M56" s="3">
         <v>6.16</v>
       </c>
@@ -6679,6 +6964,24 @@
       <c r="F57" s="3">
         <v>1</v>
       </c>
+      <c r="G57" s="8">
+        <v>0</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
       <c r="M57" s="3">
         <v>7.44</v>
       </c>
@@ -6705,6 +7008,24 @@
       <c r="F58" s="3">
         <v>1</v>
       </c>
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
       <c r="M58" s="3">
         <v>8.2899999999999991</v>
       </c>
@@ -6731,6 +7052,24 @@
       <c r="F59" s="3">
         <v>1</v>
       </c>
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
       <c r="M59" s="3">
         <v>6.85</v>
       </c>
@@ -7153,6 +7492,9 @@
       <c r="F69" s="3">
         <v>30</v>
       </c>
+      <c r="G69" s="8">
+        <v>0</v>
+      </c>
       <c r="H69" s="3">
         <v>106</v>
       </c>
@@ -7194,6 +7536,30 @@
       <c r="F70" s="3">
         <v>1</v>
       </c>
+      <c r="G70" s="8">
+        <v>0</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8">
+        <v>0</v>
+      </c>
+      <c r="K70" s="8">
+        <v>0</v>
+      </c>
+      <c r="L70" s="8">
+        <v>0</v>
+      </c>
+      <c r="M70" s="8">
+        <v>0</v>
+      </c>
+      <c r="N70" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -7214,6 +7580,30 @@
       <c r="F71" s="3">
         <v>1</v>
       </c>
+      <c r="G71" s="8">
+        <v>0</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
+        <v>0</v>
+      </c>
+      <c r="K71" s="8">
+        <v>0</v>
+      </c>
+      <c r="L71" s="8">
+        <v>0</v>
+      </c>
+      <c r="M71" s="8">
+        <v>0</v>
+      </c>
+      <c r="N71" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -7234,6 +7624,30 @@
       <c r="F72" s="3">
         <v>1</v>
       </c>
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8">
+        <v>0</v>
+      </c>
+      <c r="K72" s="8">
+        <v>0</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0</v>
+      </c>
+      <c r="M72" s="8">
+        <v>0</v>
+      </c>
+      <c r="N72" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
@@ -7254,6 +7668,30 @@
       <c r="F73" s="3">
         <v>1</v>
       </c>
+      <c r="G73" s="8">
+        <v>0</v>
+      </c>
+      <c r="H73" s="8">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
+        <v>0</v>
+      </c>
+      <c r="K73" s="8">
+        <v>0</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8">
+        <v>0</v>
+      </c>
+      <c r="N73" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -7292,6 +7730,12 @@
       <c r="L74" s="3">
         <v>32900</v>
       </c>
+      <c r="M74" s="8">
+        <v>0</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
@@ -7330,6 +7774,12 @@
       <c r="L75" s="3">
         <v>40100</v>
       </c>
+      <c r="M75" s="8">
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
@@ -7368,6 +7818,12 @@
       <c r="L76" s="3">
         <v>41300</v>
       </c>
+      <c r="M76" s="8">
+        <v>0</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
@@ -7405,6 +7861,12 @@
       </c>
       <c r="L77" s="3">
         <v>40400</v>
+      </c>
+      <c r="M77" s="8">
+        <v>0</v>
+      </c>
+      <c r="N77" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
